--- a/biology/Botanique/Hesperoyucca_whipplei/Hesperoyucca_whipplei.xlsx
+++ b/biology/Botanique/Hesperoyucca_whipplei/Hesperoyucca_whipplei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hesperoyucca whipplei est une espèce de plante à fleurs étroitement liée à, et anciennement habituellement incluse dans le genre Yucca de la famille des Asparagaceae. Elle est originaire du sud-ouest d'Amérique du Nord, du sud de la Californie et de la Baja California, où on la trouve principalement dans les chaparrals et les forêts de chêne à des altitudes comprises entre 300 et 2 500 m.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il produit une rosette de longues feuilles rigides qui se terminent en une pointe acérée. Les feuilles font de 20 à 90 cm (rarement 125 cm) de long et de 0,7 à 2 cm de large, de couleur gris-vert. Les bords des feuilles sont finement dentelés.
 L'inflorescence unique se développe très rapidement au sommet d'une hampe qui atteint de 0,9 à 3 m de haut, portant des centaines de boules elliptiques de couleur blanche à violacée mesurant 3 cm de diamètre groupées en une panicule très ramifiée pouvant atteindre 70 cm de diamètre, occupant la moitié supérieure de la hampe. Le fruit est une capsule sèche ailée, qui se fend à maturité pour libérer les graines.
